--- a/biology/Médecine/1327_en_santé_et_médecine/1327_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1327_en_santé_et_médecine/1327_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1327_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1327_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1327 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1327_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1327_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4 mars : Michel Mauconduit, seigneur de Criquetot, fonde au hameau de Briquedalles, près de Sassetot, un hôpital qui perdurera jusqu'en 1666[1].
-16 août : fondation de l'hôpital de Bracon, en Franche-Comté, par Mahaut d'Artois[2].
-Fondation de l'hôpital des Antonins à Toulouse[3].
-Fondation de l'hôpital Saint-Michel à Salins, en Franche-Comté, par la comtesse Mahaut[4].
-Fondation de l'hôpital d'Arlay, en Franche-Comté, par Ponce, seigneur du lieu[5].
-Fondation de l'hôpital des Haudriettes à Paris[6].
-Fondation à Gand, dans le comté de Flandre, de l'hospice Notre-Dame de Schreyboom ou Notre-Dame-des-Sept-Douleurs où, en 1845, « on alimente encore plusieurs pauvres femmes[7] ».
-Sous le nom de Perrod Jaquemin, un apothicaire est mentionné pour la première fois à Fribourg, en Suisse[8].
-1327-1328 : Jean de Padua (fl. 1301-1328), chirurgien de Philippe le Bel, soigne au château de Conflans le fou de Mahaut, comtesse d'Artois[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4 mars : Michel Mauconduit, seigneur de Criquetot, fonde au hameau de Briquedalles, près de Sassetot, un hôpital qui perdurera jusqu'en 1666.
+16 août : fondation de l'hôpital de Bracon, en Franche-Comté, par Mahaut d'Artois.
+Fondation de l'hôpital des Antonins à Toulouse.
+Fondation de l'hôpital Saint-Michel à Salins, en Franche-Comté, par la comtesse Mahaut.
+Fondation de l'hôpital d'Arlay, en Franche-Comté, par Ponce, seigneur du lieu.
+Fondation de l'hôpital des Haudriettes à Paris.
+Fondation à Gand, dans le comté de Flandre, de l'hospice Notre-Dame de Schreyboom ou Notre-Dame-des-Sept-Douleurs où, en 1845, « on alimente encore plusieurs pauvres femmes ».
+Sous le nom de Perrod Jaquemin, un apothicaire est mentionné pour la première fois à Fribourg, en Suisse.
+1327-1328 : Jean de Padua (fl. 1301-1328), chirurgien de Philippe le Bel, soigne au château de Conflans le fou de Mahaut, comtesse d'Artois.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1327_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1327_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,13 +563,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8 juin : Jean de Pavilly (né à une date inconnue), clerc, médecin des rois de France Louis X et Philippe V[9].
-10 septembre : Cecco d'Ascoli (né en 1269), poète, théologien, philosophe, astrologue et médecin italien, auteur d'un ouvrage de médecine, le Modo di conoscere quali infermità siano mortali o no per via delle stelle (« Manière de connaître quelles maladies sont mortelles ou non sous l'influence des astres[11] »).
-30 septembre : Dino del Garbo (né vers 1280), médecin italien, professeur à Bologne, Padoue, Florence et Sienne, élève de Thaddée de Florence, fils du chirurgien Bono del Garbo et père du médecin Thomas del Garbo[12].
-1325 ou 1327 : Luo Zhiti (né vers 1238), médecin chinois, maître de Zhu Zhenheng[13],[14].
-1327 au plus tôt, probablement après septembre 1328[15] : Jean Pitard (né vers 1248[15]), chirurgien des rois de France Philippe le Hardi et Philippe le Bel.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 juin : Jean de Pavilly (né à une date inconnue), clerc, médecin des rois de France Louis X et Philippe V.
+10 septembre : Cecco d'Ascoli (né en 1269), poète, théologien, philosophe, astrologue et médecin italien, auteur d'un ouvrage de médecine, le Modo di conoscere quali infermità siano mortali o no per via delle stelle (« Manière de connaître quelles maladies sont mortelles ou non sous l'influence des astres »).
+30 septembre : Dino del Garbo (né vers 1280), médecin italien, professeur à Bologne, Padoue, Florence et Sienne, élève de Thaddée de Florence, fils du chirurgien Bono del Garbo et père du médecin Thomas del Garbo.
+1325 ou 1327 : Luo Zhiti (né vers 1238), médecin chinois, maître de Zhu Zhenheng,.
+1327 au plus tôt, probablement après septembre 1328 : Jean Pitard (né vers 1248), chirurgien des rois de France Philippe le Hardi et Philippe le Bel.
 </t>
         </is>
       </c>
